--- a/Data-Request_Thesis_Kariya_data_dictionaryV2.xlsx
+++ b/Data-Request_Thesis_Kariya_data_dictionaryV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\groups\data\CTRHS\Home_HPV\PROGRAMMING\Programs\Request_Hitomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/hitomik_uw_edu/Documents/Thesis/Analysis_Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A80C4-5A07-4F64-86BA-44F01C9109E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A80C4-5A07-4F64-86BA-44F01C9109E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -978,19 +978,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="28.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.83203125" style="1" customWidth="1"/>
     <col min="8" max="53" width="11" style="14"/>
     <col min="54" max="16384" width="11" style="1"/>
   </cols>
@@ -17410,7 +17410,7 @@
       <c r="XFC2" s="8"/>
       <c r="XFD2" s="8"/>
     </row>
-    <row r="3" spans="1:16384" s="9" customFormat="1" ht="31.5">
+    <row r="3" spans="1:16384" s="9" customFormat="1" ht="34">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -17479,7 +17479,7 @@
       <c r="AZ3" s="14"/>
       <c r="BA3" s="14"/>
     </row>
-    <row r="4" spans="1:16384" s="9" customFormat="1" ht="32.1" customHeight="1">
+    <row r="4" spans="1:16384" s="9" customFormat="1" ht="32" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -17548,7 +17548,7 @@
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14"/>
     </row>
-    <row r="5" spans="1:16384" s="9" customFormat="1" ht="32.1" customHeight="1">
+    <row r="5" spans="1:16384" s="9" customFormat="1" ht="32" customHeight="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -18744,7 +18744,7 @@
       <c r="AZ22" s="14"/>
       <c r="BA22" s="14"/>
     </row>
-    <row r="23" spans="1:53" s="9" customFormat="1" ht="114.75">
+    <row r="23" spans="1:53" s="9" customFormat="1" ht="135">
       <c r="A23" s="12">
         <v>25</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="AZ23" s="14"/>
       <c r="BA23" s="14"/>
     </row>
-    <row r="24" spans="1:53" s="9" customFormat="1" ht="38.25">
+    <row r="24" spans="1:53" s="9" customFormat="1" ht="45">
       <c r="A24" s="12">
         <v>26</v>
       </c>
@@ -19012,7 +19012,7 @@
       <c r="AZ26" s="14"/>
       <c r="BA26" s="14"/>
     </row>
-    <row r="27" spans="1:53" s="9" customFormat="1" ht="76.5">
+    <row r="27" spans="1:53" s="9" customFormat="1" ht="90">
       <c r="A27" s="12">
         <v>29</v>
       </c>
@@ -19079,7 +19079,7 @@
       <c r="AZ27" s="14"/>
       <c r="BA27" s="14"/>
     </row>
-    <row r="28" spans="1:53" s="9" customFormat="1" ht="78.75">
+    <row r="28" spans="1:53" s="9" customFormat="1" ht="85">
       <c r="A28" s="12">
         <v>30</v>
       </c>
@@ -19146,7 +19146,7 @@
       <c r="AZ28" s="14"/>
       <c r="BA28" s="14"/>
     </row>
-    <row r="29" spans="1:53" s="9" customFormat="1" ht="110.25">
+    <row r="29" spans="1:53" s="9" customFormat="1" ht="119">
       <c r="A29" s="12">
         <v>31</v>
       </c>
@@ -19213,7 +19213,7 @@
       <c r="AZ29" s="14"/>
       <c r="BA29" s="14"/>
     </row>
-    <row r="30" spans="1:53" s="9" customFormat="1" ht="51">
+    <row r="30" spans="1:53" s="9" customFormat="1" ht="60">
       <c r="A30" s="12">
         <v>32</v>
       </c>
@@ -19280,7 +19280,7 @@
       <c r="AZ30" s="14"/>
       <c r="BA30" s="14"/>
     </row>
-    <row r="31" spans="1:53" s="9" customFormat="1" ht="51">
+    <row r="31" spans="1:53" s="9" customFormat="1" ht="60">
       <c r="A31" s="12">
         <v>33</v>
       </c>
